--- a/内部仕様.xlsx
+++ b/内部仕様.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="インデックス" sheetId="5" r:id="rId1"/>
@@ -6399,18 +6399,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>627371</xdr:colOff>
-      <xdr:row>169</xdr:row>
-      <xdr:rowOff>132112</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>370914</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>103862</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="32" name="図 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6423,8 +6423,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="19392900"/>
-          <a:ext cx="10228571" cy="9904762"/>
+          <a:off x="685800" y="704850"/>
+          <a:ext cx="4485714" cy="7304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6437,18 +6437,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>370914</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>103862</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>627371</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>132112</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="12" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6461,8 +6461,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="704850"/>
-          <a:ext cx="4485714" cy="7304762"/>
+          <a:off x="685800" y="19392900"/>
+          <a:ext cx="10228571" cy="9904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9000,7 +9000,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -9053,7 +9053,7 @@
     <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
